--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H2">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I2">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J2">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>143.510063257836</v>
+        <v>326.7042435368937</v>
       </c>
       <c r="R2">
-        <v>574.040253031344</v>
+        <v>1306.816974147575</v>
       </c>
       <c r="S2">
-        <v>0.0007386036217803443</v>
+        <v>0.0008979590058733674</v>
       </c>
       <c r="T2">
-        <v>0.0003836345648417232</v>
+        <v>0.000483834358380547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H3">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I3">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J3">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>103.561543901376</v>
+        <v>192.5065838093</v>
       </c>
       <c r="R3">
-        <v>621.3692634082558</v>
+        <v>1155.0395028558</v>
       </c>
       <c r="S3">
-        <v>0.0005330004716484147</v>
+        <v>0.0005291116477400642</v>
       </c>
       <c r="T3">
-        <v>0.0004152648280583771</v>
+        <v>0.0004276404483749176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H4">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I4">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J4">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>73.711190248344</v>
+        <v>125.8037808256208</v>
       </c>
       <c r="R4">
-        <v>442.267141490064</v>
+        <v>754.822684953725</v>
       </c>
       <c r="S4">
-        <v>0.0003793695776257288</v>
+        <v>0.0003457764635754677</v>
       </c>
       <c r="T4">
-        <v>0.0002955697992838653</v>
+        <v>0.0002794646508964195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H5">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I5">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J5">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>121.998887377884</v>
+        <v>278.8613674941187</v>
       </c>
       <c r="R5">
-        <v>487.995549511536</v>
+        <v>1115.445469976475</v>
       </c>
       <c r="S5">
-        <v>0.0006278919960378269</v>
+        <v>0.0007664610462986808</v>
       </c>
       <c r="T5">
-        <v>0.0003261303702883942</v>
+        <v>0.0004129812008499438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H6">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I6">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J6">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>106.150449781728</v>
+        <v>97.01528557242082</v>
       </c>
       <c r="R6">
-        <v>636.902698690368</v>
+        <v>582.091713434525</v>
       </c>
       <c r="S6">
-        <v>0.0005463248003837518</v>
+        <v>0.0002666501923697667</v>
       </c>
       <c r="T6">
-        <v>0.0004256459165856737</v>
+        <v>0.0002155129419496064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.871992</v>
+        <v>1.6209125</v>
       </c>
       <c r="H7">
-        <v>1.743984</v>
+        <v>3.241825</v>
       </c>
       <c r="I7">
-        <v>0.003182586221429946</v>
+        <v>0.003190269591522575</v>
       </c>
       <c r="J7">
-        <v>0.002124695300791682</v>
+        <v>0.002130042958301246</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>69.44169476772001</v>
+        <v>139.8238791631917</v>
       </c>
       <c r="R7">
-        <v>416.6501686063201</v>
+        <v>838.9432749791499</v>
       </c>
       <c r="S7">
-        <v>0.0003573957539538791</v>
+        <v>0.0003843112356652286</v>
       </c>
       <c r="T7">
-        <v>0.0002784498217336485</v>
+        <v>0.0003106093578498114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.885984</v>
       </c>
       <c r="I8">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J8">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>158.3224564755573</v>
+        <v>193.8955618269707</v>
       </c>
       <c r="R8">
-        <v>949.934738853344</v>
+        <v>1163.373370961824</v>
       </c>
       <c r="S8">
-        <v>0.0008148386050942842</v>
+        <v>0.0005329293065082053</v>
       </c>
       <c r="T8">
-        <v>0.0006348471178520995</v>
+        <v>0.0004307259697659574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.885984</v>
       </c>
       <c r="I9">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J9">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>114.2506501262506</v>
+        <v>114.2506501262507</v>
       </c>
       <c r="R9">
         <v>1028.255851136256</v>
       </c>
       <c r="S9">
-        <v>0.00058801412290089</v>
+        <v>0.0003140222456160674</v>
       </c>
       <c r="T9">
-        <v>0.0006871895897779036</v>
+        <v>0.0003807002203273891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.885984</v>
       </c>
       <c r="I10">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J10">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>81.319291796896</v>
+        <v>74.66323209966578</v>
       </c>
       <c r="R10">
-        <v>731.873626172064</v>
+        <v>671.969088896992</v>
       </c>
       <c r="S10">
-        <v>0.0004185262139693221</v>
+        <v>0.0002052147255440752</v>
       </c>
       <c r="T10">
-        <v>0.0004891155604732879</v>
+        <v>0.0002487890342793496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.885984</v>
       </c>
       <c r="I11">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J11">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>134.5910042715893</v>
+        <v>165.501313777712</v>
       </c>
       <c r="R11">
-        <v>807.5460256295361</v>
+        <v>993.0078826662719</v>
       </c>
       <c r="S11">
-        <v>0.0006926998773280916</v>
+        <v>0.000454886638697082</v>
       </c>
       <c r="T11">
-        <v>0.0005396878816356006</v>
+        <v>0.000367650054507484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.885984</v>
       </c>
       <c r="I12">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J12">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>117.1067699638186</v>
+        <v>57.57756035924977</v>
       </c>
       <c r="R12">
-        <v>1053.960929674368</v>
+        <v>518.198043233248</v>
       </c>
       <c r="S12">
-        <v>0.0006027137224159173</v>
+        <v>0.0001582541086735751</v>
       </c>
       <c r="T12">
-        <v>0.0007043684488685614</v>
+        <v>0.0001918570256751962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.885984</v>
       </c>
       <c r="I13">
-        <v>0.003511076903483549</v>
+        <v>0.001893391735996584</v>
       </c>
       <c r="J13">
-        <v>0.003515993634666363</v>
+        <v>0.001896237427057309</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>76.60912027959112</v>
+        <v>82.98401426828089</v>
       </c>
       <c r="R13">
-        <v>689.4820825163201</v>
+        <v>746.8561284145279</v>
       </c>
       <c r="S13">
-        <v>0.0003942843617750437</v>
+        <v>0.0002280847109575788</v>
       </c>
       <c r="T13">
-        <v>0.0004607850360589099</v>
+        <v>0.0002765151225019333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H14">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I14">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J14">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>23563.02346936466</v>
+        <v>42320.01633206489</v>
       </c>
       <c r="R14">
-        <v>141378.140816188</v>
+        <v>253920.0979923893</v>
       </c>
       <c r="S14">
-        <v>0.1212718751527531</v>
+        <v>0.1163181701672456</v>
       </c>
       <c r="T14">
-        <v>0.09448386457872431</v>
+        <v>0.09401107432983161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H15">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I15">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J15">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>17003.84651832782</v>
+        <v>24936.56550842931</v>
       </c>
       <c r="R15">
-        <v>153034.6186649504</v>
+        <v>224429.0895758638</v>
       </c>
       <c r="S15">
-        <v>0.0875137418068713</v>
+        <v>0.06853909619119047</v>
       </c>
       <c r="T15">
-        <v>0.1022739590598739</v>
+        <v>0.0830923585360516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H16">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I16">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J16">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>12102.69486576716</v>
+        <v>16296.13990175968</v>
       </c>
       <c r="R16">
-        <v>108924.2537919045</v>
+        <v>146665.2591158371</v>
       </c>
       <c r="S16">
-        <v>0.06228897164582573</v>
+        <v>0.04479055866351164</v>
       </c>
       <c r="T16">
-        <v>0.07279473605465962</v>
+        <v>0.05430117066493982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H17">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I17">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J17">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>20031.08758552159</v>
+        <v>36122.63342211639</v>
       </c>
       <c r="R17">
-        <v>120186.5255131295</v>
+        <v>216735.8005326984</v>
       </c>
       <c r="S17">
-        <v>0.1030940514065845</v>
+        <v>0.09928442816075247</v>
       </c>
       <c r="T17">
-        <v>0.08032138020214852</v>
+        <v>0.08024400437347727</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H18">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I18">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J18">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>17428.92089035365</v>
+        <v>12566.98849527231</v>
       </c>
       <c r="R18">
-        <v>156860.2880131828</v>
+        <v>113102.8964574508</v>
       </c>
       <c r="S18">
-        <v>0.08970147320059385</v>
+        <v>0.03454084456898837</v>
       </c>
       <c r="T18">
-        <v>0.1048306769692664</v>
+        <v>0.04187508153096001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.1730116666667</v>
+        <v>209.9667966666667</v>
       </c>
       <c r="H19">
-        <v>429.519035</v>
+        <v>629.90039</v>
       </c>
       <c r="I19">
-        <v>0.5225511864913465</v>
+        <v>0.4132553031919183</v>
       </c>
       <c r="J19">
-        <v>0.5232829402477764</v>
+        <v>0.4138764091678941</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>11401.68324380486</v>
+        <v>18112.24973920704</v>
       </c>
       <c r="R19">
-        <v>102615.1491942437</v>
+        <v>163010.2476528634</v>
       </c>
       <c r="S19">
-        <v>0.05868107327871799</v>
+        <v>0.04978220544022979</v>
       </c>
       <c r="T19">
-        <v>0.06857832338310371</v>
+        <v>0.06035271973263386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H20">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I20">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J20">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>45.65974190707325</v>
+        <v>134.3411437116155</v>
       </c>
       <c r="R20">
-        <v>182.638967628293</v>
+        <v>537.3645748464619</v>
       </c>
       <c r="S20">
-        <v>0.000234997114324515</v>
+        <v>0.0003692417293060067</v>
       </c>
       <c r="T20">
-        <v>0.0001220587241037885</v>
+        <v>0.0001989532194872706</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H21">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I21">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J21">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>32.94955948517199</v>
+        <v>79.15891866288798</v>
       </c>
       <c r="R21">
-        <v>197.6973569110319</v>
+        <v>474.9535119773279</v>
       </c>
       <c r="S21">
-        <v>0.0001695815848683077</v>
+        <v>0.000217571290593018</v>
       </c>
       <c r="T21">
-        <v>0.0001321223365232914</v>
+        <v>0.000175846221983789</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H22">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I22">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J22">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>23.45225028823049</v>
+        <v>51.73065282652433</v>
       </c>
       <c r="R22">
-        <v>140.713501729383</v>
+        <v>310.383916959146</v>
       </c>
       <c r="S22">
-        <v>0.0001207017585287027</v>
+        <v>0.000142183661535576</v>
       </c>
       <c r="T22">
-        <v>9.403968226660115E-05</v>
+        <v>0.0001149161713418414</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H23">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I23">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J23">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>38.81565922395425</v>
+        <v>114.6681005443215</v>
       </c>
       <c r="R23">
-        <v>155.262636895817</v>
+        <v>458.6724021772859</v>
       </c>
       <c r="S23">
-        <v>0.0001997726558944905</v>
+        <v>0.000315169623924822</v>
       </c>
       <c r="T23">
-        <v>0.0001037629570873541</v>
+        <v>0.0001698183233035129</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H24">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I24">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J24">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>33.77325624646599</v>
+        <v>39.89279196441233</v>
       </c>
       <c r="R24">
-        <v>202.639537478796</v>
+        <v>239.356751786474</v>
       </c>
       <c r="S24">
-        <v>0.0001738209071661973</v>
+        <v>0.0001096468519235241</v>
       </c>
       <c r="T24">
-        <v>0.0001354252256176906</v>
+        <v>8.861915839454234E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2774365</v>
+        <v>0.6665209999999999</v>
       </c>
       <c r="H25">
-        <v>0.5548729999999999</v>
+        <v>1.333042</v>
       </c>
       <c r="I25">
-        <v>0.001012584498735939</v>
+        <v>0.001311842359418672</v>
       </c>
       <c r="J25">
-        <v>0.0006760016465954865</v>
+        <v>0.000875876003553495</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>22.09385034544417</v>
+        <v>57.49573265906066</v>
       </c>
       <c r="R25">
-        <v>132.563102072665</v>
+        <v>344.9743959543639</v>
       </c>
       <c r="S25">
-        <v>0.0001137104779537259</v>
+        <v>0.0001580292021357253</v>
       </c>
       <c r="T25">
-        <v>8.859272099676072E-05</v>
+        <v>0.0001277229090425388</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H26">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I26">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J26">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>117.6606245485731</v>
+        <v>34152.50467251398</v>
       </c>
       <c r="R26">
-        <v>705.9637472914389</v>
+        <v>204915.0280350839</v>
       </c>
       <c r="S26">
-        <v>0.0006055642472707795</v>
+        <v>0.09386945456174645</v>
       </c>
       <c r="T26">
-        <v>0.00047179983207797</v>
+        <v>0.07586749565795775</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H27">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I27">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J27">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>84.90774554783731</v>
+        <v>20123.95655428447</v>
       </c>
       <c r="R27">
-        <v>764.1697099305358</v>
+        <v>181115.6089885603</v>
       </c>
       <c r="S27">
-        <v>0.0004369949183714281</v>
+        <v>0.05531145792932889</v>
       </c>
       <c r="T27">
-        <v>0.0005106992281226308</v>
+        <v>0.06705602712640178</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H28">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I28">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J28">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>60.43412206750099</v>
+        <v>13151.08174278045</v>
       </c>
       <c r="R28">
-        <v>543.9070986075089</v>
+        <v>118359.7356850241</v>
       </c>
       <c r="S28">
-        <v>0.0003110364557360361</v>
+        <v>0.03614624701553028</v>
       </c>
       <c r="T28">
-        <v>0.000363496395917766</v>
+        <v>0.0438213674188072</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H29">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I29">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J29">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>100.0241025420152</v>
+        <v>29151.17983538231</v>
       </c>
       <c r="R29">
-        <v>600.1446152520909</v>
+        <v>174907.0790122939</v>
       </c>
       <c r="S29">
-        <v>0.0005147943128568512</v>
+        <v>0.08012312353714381</v>
       </c>
       <c r="T29">
-        <v>0.0004010802676267511</v>
+        <v>0.0647573883904666</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H30">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I30">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J30">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>87.0303303747453</v>
+        <v>10141.63439674826</v>
       </c>
       <c r="R30">
-        <v>783.2729733727078</v>
+        <v>91274.70957073431</v>
       </c>
       <c r="S30">
-        <v>0.0004479192313087974</v>
+        <v>0.02787466683090944</v>
       </c>
       <c r="T30">
-        <v>0.0005234660543495266</v>
+        <v>0.0337934396439359</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7149263333333332</v>
+        <v>169.4444526666666</v>
       </c>
       <c r="H31">
-        <v>2.144779</v>
+        <v>508.333358</v>
       </c>
       <c r="I31">
-        <v>0.002609329784910984</v>
+        <v>0.3334994855025505</v>
       </c>
       <c r="J31">
-        <v>0.002612983755892648</v>
+        <v>0.334000721716171</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>56.93366019497722</v>
+        <v>14616.69317408382</v>
       </c>
       <c r="R31">
-        <v>512.4029417547951</v>
+        <v>131550.2385667544</v>
       </c>
       <c r="S31">
-        <v>0.0002930206193670915</v>
+        <v>0.0401745356278917</v>
       </c>
       <c r="T31">
-        <v>0.0003424419777980032</v>
+        <v>0.04870500347860179</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H32">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I32">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J32">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>21064.10183364694</v>
+        <v>25279.00689306533</v>
       </c>
       <c r="R32">
-        <v>126384.6110018816</v>
+        <v>151674.041358392</v>
       </c>
       <c r="S32">
-        <v>0.1084106685670499</v>
+        <v>0.06948030932631447</v>
       </c>
       <c r="T32">
-        <v>0.08446359813333491</v>
+        <v>0.05615561623041406</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H33">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I33">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J33">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>15200.54313451896</v>
+        <v>14895.35368868329</v>
       </c>
       <c r="R33">
-        <v>136804.8882106707</v>
+        <v>134058.1831981496</v>
       </c>
       <c r="S33">
-        <v>0.07823267551637027</v>
+        <v>0.04094044462239069</v>
       </c>
       <c r="T33">
-        <v>0.0914275322675944</v>
+        <v>0.04963354190868804</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H34">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I34">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J34">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>10819.17171815937</v>
+        <v>9734.169988843196</v>
       </c>
       <c r="R34">
-        <v>97372.5454634343</v>
+        <v>87607.52989958876</v>
       </c>
       <c r="S34">
-        <v>0.0556830596704489</v>
+        <v>0.0267547354498838</v>
       </c>
       <c r="T34">
-        <v>0.06507465967609738</v>
+        <v>0.03243570741489728</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H35">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I35">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J35">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>17906.73719307315</v>
+        <v>21577.12539873206</v>
       </c>
       <c r="R35">
-        <v>107440.4231584389</v>
+        <v>129462.7523923923</v>
       </c>
       <c r="S35">
-        <v>0.09216065162838295</v>
+        <v>0.05930554761974623</v>
       </c>
       <c r="T35">
-        <v>0.07180308308892709</v>
+        <v>0.04793213508633168</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H36">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I36">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J36">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>15580.5372329362</v>
+        <v>7506.636724909818</v>
       </c>
       <c r="R36">
-        <v>140224.8350964258</v>
+        <v>67559.73052418837</v>
       </c>
       <c r="S36">
-        <v>0.08018839214679133</v>
+        <v>0.02063227577939718</v>
       </c>
       <c r="T36">
-        <v>0.09371310340719675</v>
+        <v>0.02501323407729322</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>127.989131</v>
+        <v>125.4194246666667</v>
       </c>
       <c r="H37">
-        <v>383.967393</v>
+        <v>376.258274</v>
       </c>
       <c r="I37">
-        <v>0.4671332361000931</v>
+        <v>0.2468497076185933</v>
       </c>
       <c r="J37">
-        <v>0.4677873854142774</v>
+        <v>0.2472207127270228</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>10192.50425289192</v>
+        <v>10818.9865148853</v>
       </c>
       <c r="R37">
-        <v>91732.53827602728</v>
+        <v>97370.87863396769</v>
       </c>
       <c r="S37">
-        <v>0.05245778857104973</v>
+        <v>0.02973639482086092</v>
       </c>
       <c r="T37">
-        <v>0.06130540884112685</v>
+        <v>0.03605047800939852</v>
       </c>
     </row>
   </sheetData>
